--- a/機械設計/_BOM/CU-AAS003L.xlsx
+++ b/機械設計/_BOM/CU-AAS003L.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub\2022-KawasakiRobot\機械設計\_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF9836D9-67AC-44C0-8828-CB8863948000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30224243-6668-42DC-89DF-F686275927F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17970" yWindow="-2220" windowWidth="14400" windowHeight="10845" xr2:uid="{BC3F5ABD-43B5-4588-834F-9B761B485D42}"/>
+    <workbookView xWindow="42120" yWindow="6870" windowWidth="14400" windowHeight="10845" xr2:uid="{FBDB3456-50D3-4273-A03E-AE369ABF1CC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{A7CB1EB8-CFAF-4E36-B371-89F1E430D6C5}" mergeInterval="0" personalView="1" xWindow="-1198" yWindow="-148" windowWidth="960" windowHeight="723" activeSheetId="1"/>
+    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{832CDFB1-2F69-4BDC-8B07-B29231CD914E}" mergeInterval="0" personalView="1" xWindow="2808" yWindow="458" windowWidth="960" windowHeight="723" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -262,8 +262,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{805F08E4-4863-4075-B830-2761DB75709A}">
-  <header guid="{805F08E4-4863-4075-B830-2761DB75709A}" dateTime="2023-07-13T17:38:23" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5C9938C8-B51B-457C-A8FF-AB1E8C9C4820}">
+  <header guid="{5C9938C8-B51B-457C-A8FF-AB1E8C9C4820}" dateTime="2023-07-16T16:39:01" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -575,7 +575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB97C05-2F0C-48B3-8D2D-CEACEC5D727E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9974DF98-225D-495A-B89C-8F9DC18143E1}">
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -844,7 +844,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A7CB1EB8-CFAF-4E36-B371-89F1E430D6C5}">
+    <customSheetView guid="{832CDFB1-2F69-4BDC-8B07-B29231CD914E}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
